--- a/book-source/toyproject1/12.엑셀의 정보를 불러와 수료증 자동생성/수료증명단.xlsx
+++ b/book-source/toyproject1/12.엑셀의 정보를 불러와 수료증 자동생성/수료증명단.xlsx
@@ -14,60 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>홍길동</t>
   </si>
   <si>
-    <t>김민준</t>
-  </si>
-  <si>
     <t>김철수</t>
   </si>
   <si>
-    <t>김영희</t>
-  </si>
-  <si>
-    <t>이서준</t>
-  </si>
-  <si>
-    <t>장다인</t>
-  </si>
-  <si>
     <t>1990.01.02</t>
   </si>
   <si>
-    <t>1990.05.06</t>
-  </si>
-  <si>
     <t>2000.08.08</t>
   </si>
   <si>
-    <t>2000.09.09</t>
-  </si>
-  <si>
-    <t>2010.10.10</t>
-  </si>
-  <si>
-    <t>2017.12.12</t>
-  </si>
-  <si>
     <t>2021-0001</t>
   </si>
   <si>
-    <t>2021-0002</t>
-  </si>
-  <si>
     <t>2021-0003</t>
-  </si>
-  <si>
-    <t>2021-0004</t>
-  </si>
-  <si>
-    <t>2021-0005</t>
-  </si>
-  <si>
-    <t>2021-0006</t>
   </si>
 </sst>
 </file>
@@ -399,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,10 +374,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -421,54 +385,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
